--- a/excel/wedago_belanja_master_final.xlsx
+++ b/excel/wedago_belanja_master_final.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEDAGO\INPUTAN\HTML\INPUT BELANJA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97E3C8FD-D46E-4EEE-A0B1-7B36A03E5B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E342105-2411-4F17-AE0F-B3A580A030D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Promo" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="212">
   <si>
     <t>judul</t>
   </si>
@@ -646,6 +646,33 @@
   </si>
   <si>
     <t>action://p/68e10467c0b73</t>
+  </si>
+  <si>
+    <t>TIGA PUTRA</t>
+  </si>
+  <si>
+    <t>PUTRY ARYSA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapita Laut </t>
+  </si>
+  <si>
+    <t>IKAN TORE WOYO KLA</t>
+  </si>
+  <si>
+    <t>Ikan Tore Woyo adalah ikan laut berukuran kecil yang diolah dengan cara tradisional melalui pengasapan. Disusun rapih per-ikat (kla) menggunakan pelepah bambu, sehingga mudah dijual maupun dibawa. ✅ Ciri khas: Asli olahan nelayan Weda, Halmahera Tengah. Diasap hingga matang sempurna. Ikatan praktis (siap edar). Rasa gurih beraroma asap khas. Tahan lama tanpa bahan pengawet. 👉 Cocok dijadikan lauk, dimasak tumis, rica-rica, atau santan. Juga pas sebagai oleh-oleh khas daerah pesisir Maluku.</t>
+  </si>
+  <si>
+    <t>https://umkmdigital.app/api/listimage/v/IKAN-TORE-WOYO-KLA-0-76268d0c7eb8871d.jpg</t>
+  </si>
+  <si>
+    <t>Were Creative</t>
+  </si>
+  <si>
+    <t>Were Creative UMKM Lokal adalah studio kreatif berbasis di Halmahera Tengah yang fokus mengangkat identitas budaya lokal melalui desain, fesyen, dan produk kreatif. Kami memadukan local wisdom dengan estetika modern untuk menghasilkan karya yang autentik, fungsional, dan bernilai ekonomi bagi pelaku UMKM daerah. Karya kami mencakup desain kaos, merchandise, kemasan produk, identitas visual, dan konten promosi berbasis cerita lokal. Setiap desain membawa napas kearifan Fagogoru, kisah masyarakat pesisir, serta semangat gotong royong yang menjadi ciri khas Halmahera Tengah. Were Creative bukan sekadar usaha, tapi gerakan untuk membuat budaya lokal tetap hidup dalam bentuk yang bisa dipakai dan dibanggakan. Tagline: “Lokal Itu Keren, Karya Itu Identitas.”</t>
+  </si>
+  <si>
+    <t>https://umkmdigital.app/api/listimage/v/Were-Creative-0-58468d0bf444e7f0.jpg</t>
   </si>
 </sst>
 </file>
@@ -1046,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
@@ -1456,10 +1483,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView zoomScale="162" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="162" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1528,25 +1555,19 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
+        <v>84</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="H2" t="s">
-        <v>166</v>
-      </c>
-      <c r="J2" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="K2" t="s">
         <v>169</v>
@@ -1563,25 +1584,19 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="E3" t="s">
-        <v>172</v>
+        <v>88</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>186</v>
       </c>
       <c r="H3" t="s">
-        <v>183</v>
-      </c>
-      <c r="J3" t="s">
-        <v>173</v>
+        <v>83</v>
       </c>
       <c r="K3" t="s">
         <v>169</v>
@@ -1598,25 +1613,19 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="B4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="E4" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="H4" t="s">
-        <v>140</v>
-      </c>
-      <c r="J4" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="K4" t="s">
         <v>169</v>
@@ -1633,25 +1642,19 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>191</v>
       </c>
       <c r="B5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="H5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J5" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
         <v>169</v>
@@ -1668,25 +1671,19 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="E6" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="F6" t="s">
-        <v>150</v>
+        <v>198</v>
       </c>
       <c r="H6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J6" t="s">
-        <v>179</v>
+        <v>191</v>
       </c>
       <c r="K6" t="s">
         <v>169</v>
@@ -1703,25 +1700,19 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>151</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="E7" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="F7" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="H7" t="s">
-        <v>151</v>
-      </c>
-      <c r="J7" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="K7" t="s">
         <v>169</v>
@@ -1738,25 +1729,25 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>130</v>
       </c>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>131</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="J8" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="K8" t="s">
         <v>169</v>
@@ -1768,24 +1759,30 @@
         <v>171</v>
       </c>
       <c r="P8">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>83</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s">
-        <v>84</v>
+        <v>136</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>85</v>
+        <v>172</v>
       </c>
       <c r="F9" t="s">
-        <v>185</v>
+        <v>139</v>
       </c>
       <c r="H9" t="s">
-        <v>155</v>
+        <v>183</v>
+      </c>
+      <c r="J9" t="s">
+        <v>173</v>
       </c>
       <c r="K9" t="s">
         <v>169</v>
@@ -1797,24 +1794,30 @@
         <v>171</v>
       </c>
       <c r="P9">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>141</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>140</v>
+      </c>
+      <c r="J10" t="s">
+        <v>175</v>
       </c>
       <c r="K10" t="s">
         <v>169</v>
@@ -1826,24 +1829,30 @@
         <v>171</v>
       </c>
       <c r="P10">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>187</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
-        <v>188</v>
+        <v>144</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="F11" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>89</v>
+      </c>
+      <c r="J11" t="s">
+        <v>184</v>
       </c>
       <c r="K11" t="s">
         <v>169</v>
@@ -1855,24 +1864,30 @@
         <v>171</v>
       </c>
       <c r="P11">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>148</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>150</v>
       </c>
       <c r="H12" t="s">
-        <v>187</v>
+        <v>147</v>
+      </c>
+      <c r="J12" t="s">
+        <v>179</v>
       </c>
       <c r="K12" t="s">
         <v>169</v>
@@ -1884,24 +1899,30 @@
         <v>171</v>
       </c>
       <c r="P12">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>195</v>
+        <v>151</v>
       </c>
       <c r="B13" t="s">
-        <v>196</v>
+        <v>152</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>197</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>198</v>
+        <v>154</v>
       </c>
       <c r="H13" t="s">
-        <v>191</v>
+        <v>151</v>
+      </c>
+      <c r="J13" t="s">
+        <v>181</v>
       </c>
       <c r="K13" t="s">
         <v>169</v>
@@ -1913,24 +1934,30 @@
         <v>171</v>
       </c>
       <c r="P13">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>199</v>
+        <v>155</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
+        <v>156</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="F14" t="s">
-        <v>202</v>
+        <v>158</v>
       </c>
       <c r="H14" t="s">
-        <v>195</v>
+        <v>155</v>
+      </c>
+      <c r="J14" t="s">
+        <v>177</v>
       </c>
       <c r="K14" t="s">
         <v>169</v>
@@ -1942,21 +1969,76 @@
         <v>171</v>
       </c>
       <c r="P14">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="K15" t="s">
-        <v>169</v>
-      </c>
-      <c r="L15" t="s">
-        <v>170</v>
-      </c>
-      <c r="M15" t="s">
-        <v>171</v>
+      <c r="A15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <v>200000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H15" t="s">
+        <v>199</v>
       </c>
       <c r="P15">
-        <v>92</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" t="s">
+        <v>207</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>208</v>
+      </c>
+      <c r="F16" t="s">
+        <v>139</v>
+      </c>
+      <c r="H16" t="s">
+        <v>206</v>
+      </c>
+      <c r="P16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B17" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>211</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="H17" t="s">
+        <v>209</v>
+      </c>
+      <c r="P17">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/excel/wedago_belanja_master_final.xlsx
+++ b/excel/wedago_belanja_master_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEDAGO\INPUTAN\HTML\INPUT BELANJA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E342105-2411-4F17-AE0F-B3A580A030D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C98F86-2FD6-4A2B-9D23-CD889C116FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <sheet name="Dictionary" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$P$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Data!$A$1:$P$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="213">
   <si>
     <t>judul</t>
   </si>
@@ -291,18 +291,12 @@
     <t>Tiga Putra</t>
   </si>
   <si>
-    <t>Warung tiga Putra adalah tempat makan sederhana dengan cita rasa khas rumahan yang menggunggah selera.kami menyajikan berbagai menu masakan di antaranya:. Sayur-sayuran, sayur santan, sayur rumis, sayur garuk ikan, ikan bakar, ikan goreng,ikan saus,ketupat,ayam kecap,ayam Paniki</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/Tiga-Putra-0-35768e1edd891fe7.jpg</t>
   </si>
   <si>
     <t>Putryarisa</t>
   </si>
   <si>
-    <t>Putryarisa adalah tempat makan snak dan minuman yang menghadirkan cita rasa khas dengan suasana santai dan nyaman. Kami menyajikan berbagai menu pilihan mulai dari pisang lumpur, hot tahu balado, mie jebeew, tela-tela. Untuk melengkapi sajian, tersedia juga aneka minuman segar seperti jus alpukat, pop ice rasa magga,rasa durian, ,rasa strobbery, rasa coklat, rasa permen karer, rasa taro, rasa vanila blue, rasa beng-ben dan es mujito</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/Putryarisa-0-88768e1d29baa0da.jpg</t>
   </si>
   <si>
@@ -546,54 +540,27 @@
     <t>Kreatif</t>
   </si>
   <si>
-    <t>Produk</t>
-  </si>
-  <si>
     <t>belanja</t>
   </si>
   <si>
-    <t>produk_umkm</t>
-  </si>
-  <si>
     <t>https://drive.google.com/thumbnail?id=113vX3AYGEmKHzWkgiHWhc79CUuaP124q&amp;sz=w800</t>
   </si>
   <si>
-    <t>Ikan Tore</t>
-  </si>
-  <si>
     <t>https://drive.google.com/thumbnail?id=1oKsGyh8Q3VpbAVnrIKU_8cJnkF5myqEL&amp;sz=w800</t>
   </si>
   <si>
-    <t>Ikan Fufu</t>
-  </si>
-  <si>
     <t>https://drive.google.com/thumbnail?id=1icx4gWmn7kuIUStRS4qK6ar0oJz-9hqM&amp;sz=w800</t>
   </si>
   <si>
-    <t>Sagu</t>
-  </si>
-  <si>
     <t>https://drive.google.com/thumbnail?id=1By69lkNEFNlZe2SW88BrTBGdWabd1DlO&amp;sz=w800</t>
   </si>
   <si>
-    <t>Distro</t>
-  </si>
-  <si>
     <t>https://drive.google.com/thumbnail?id=1eFNNlkbYs-XFcs5eYq2Cy2NzSYA91bkU&amp;sz=w800</t>
   </si>
   <si>
-    <t>Sablon</t>
-  </si>
-  <si>
     <t>https://drive.google.com/thumbnail?id=1YJii5sa1EC6U_f3QBM2vAJTFCE-pbx4I&amp;sz=w800</t>
   </si>
   <si>
-    <t>IKAN TORE  WEDA</t>
-  </si>
-  <si>
-    <t>Sagu Bakar</t>
-  </si>
-  <si>
     <t>action://p/68e1edd891fe7</t>
   </si>
   <si>
@@ -603,9 +570,6 @@
     <t>Kapita Laut Samandare</t>
   </si>
   <si>
-    <t>Desain ini menghadirkan kisah heroik Kapita Laut Samandaré, pejuang dan penjaga laut Halmahera. Dengan ilustrasi bergaya epik, desain menonjolkan topeng tradisional, perahu layar, dan simbol kekuatan laut di bawah cahaya bulan. Warna netral dipadukan dengan detail garis etnik yang kuat, menegaskan karakter tangguh khas pelaut Maluku. Dicetak menggunakan teknik high-quality screen printing pada bahan 100% cotton combed 30s, nyaman dan tahan lama. Kategori: Warrior Series Warna: Hitam – Ivory – Beige Tagline: “Kekuatan laut, jiwa Fagogoru.”</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/Kapita-Laut-Samandare-0-90768e1069c9aad5.jpg</t>
   </si>
   <si>
@@ -615,9 +579,6 @@
     <t>Kaos Culture of Fagogoru Cogo IPA</t>
   </si>
   <si>
-    <t>Kaos ini menampilkan ikon kebudayaan Cogo IPA, representasi seni dan ritual dari warisan Fagogoru di Halmahera Tengah. Ilustrasi tiga figur bertopeng dengan warna merah dan emas menggambarkan semangat, keberanian, dan harmoni antara manusia dan leluhur. Desainnya penuh energi, seolah menyalakan kembali api budaya dalam bentuk visual kontemporer. Diproduksi dengan bahan cotton combed premium, cocok untuk dikenakan di acara budaya, festival, atau sebagai fashion statement khas daerah. Kategori: Cultural Series Warna: Hitam – Merah – Emas Tagline: “Budaya bukan masa lalu, tapi identitas yang hidup.”</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/Kaos-Culture-of-Fagogoru-Cogo-IPA-0-66868e106377bf56.jpg</t>
   </si>
   <si>
@@ -627,9 +588,6 @@
     <t>Kaos Hj Salahuddin Bin Talabuddin</t>
   </si>
   <si>
-    <t>Kaos edisi penghormatan terhadap tokoh penting Halmahera Tengah, Hj. Salahuddin Bin Talabuddin, sosok panutan yang dikenal berwibawa dan berjasa bagi masyarakat. Desain menampilkan potret bergaya ilustrasi klasik dalam bingkai ornamental keemasan yang mencerminkan kehormatan dan keteladanan. Dicetak pada bahan katun premium dengan teknik screen printing halus berwarna monokrom elegan. Kaos ini menjadi bentuk apresiasi terhadap sejarah dan figur lokal yang membangun daerah. Kategori: Heritage Series Warna: Hitam – Gold Tagline: “Hormati sejarah, kenakan kebanggaan.”</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/Kaos-Hj-Salahuddin-Bin-Talabuddin-0-37468e105ae2033a.jpg</t>
   </si>
   <si>
@@ -639,9 +597,6 @@
     <t>Bidadari Halmahera</t>
   </si>
   <si>
-    <t>Desain ini menampilkan sosok Bidadari Halmahera — simbol keanggunan, kekuatan, dan keindahan perempuan Maluku Utara. Dengan warna emas dan hijau zamrud yang mencolok, ilustrasi ini menggambarkan perpaduan antara unsur alam dan spiritualitas lokal: sayap besar melambangkan kebebasan dan penjaga kehidupan, sementara detail ornamen mencerminkan motif khas budaya Halmahera. Dicetak pada bahan katun premium dengan teknik high-resolution screen printing, kaos ini menghadirkan kesan elegan dan berkarakter. Setiap helainya bukan sekadar fesyen, tapi pernyataan kebanggaan akan jati diri dan keindahan lokal. Produk asli Were Creative UMKM Lokal — karena budaya pantas tampil seindah seni.</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/Bidadari-Halmahera-0-47668e10467c0b73.jpg</t>
   </si>
   <si>
@@ -654,25 +609,73 @@
     <t>PUTRY ARYSA</t>
   </si>
   <si>
-    <t xml:space="preserve">Kapita Laut </t>
-  </si>
-  <si>
     <t>IKAN TORE WOYO KLA</t>
   </si>
   <si>
-    <t>Ikan Tore Woyo adalah ikan laut berukuran kecil yang diolah dengan cara tradisional melalui pengasapan. Disusun rapih per-ikat (kla) menggunakan pelepah bambu, sehingga mudah dijual maupun dibawa. ✅ Ciri khas: Asli olahan nelayan Weda, Halmahera Tengah. Diasap hingga matang sempurna. Ikatan praktis (siap edar). Rasa gurih beraroma asap khas. Tahan lama tanpa bahan pengawet. 👉 Cocok dijadikan lauk, dimasak tumis, rica-rica, atau santan. Juga pas sebagai oleh-oleh khas daerah pesisir Maluku.</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/IKAN-TORE-WOYO-KLA-0-76268d0c7eb8871d.jpg</t>
   </si>
   <si>
     <t>Were Creative</t>
   </si>
   <si>
-    <t>Were Creative UMKM Lokal adalah studio kreatif berbasis di Halmahera Tengah yang fokus mengangkat identitas budaya lokal melalui desain, fesyen, dan produk kreatif. Kami memadukan local wisdom dengan estetika modern untuk menghasilkan karya yang autentik, fungsional, dan bernilai ekonomi bagi pelaku UMKM daerah. Karya kami mencakup desain kaos, merchandise, kemasan produk, identitas visual, dan konten promosi berbasis cerita lokal. Setiap desain membawa napas kearifan Fagogoru, kisah masyarakat pesisir, serta semangat gotong royong yang menjadi ciri khas Halmahera Tengah. Were Creative bukan sekadar usaha, tapi gerakan untuk membuat budaya lokal tetap hidup dalam bentuk yang bisa dipakai dan dibanggakan. Tagline: “Lokal Itu Keren, Karya Itu Identitas.”</t>
-  </si>
-  <si>
     <t>https://umkmdigital.app/api/listimage/v/Were-Creative-0-58468d0bf444e7f0.jpg</t>
+  </si>
+  <si>
+    <t>Warung tiga Putra adalah tempat makan sederhana dengan cita rasa khas rumahan yang menggunggah selera. Kami menyajikan berbagai menu masakan di antaranya: sayur-sayuran, sayur santan, sayur rumis, sayur garuk ikan, ikan bakar, ikan goreng, ikan saus, ketupat, ayam kecap, ayam Paniki.</t>
+  </si>
+  <si>
+    <t>Makanan</t>
+  </si>
+  <si>
+    <t>Putryarisa adalah tempat makan snack dan minuman yang menghadirkan cita rasa khas dengan suasana santai dan nyaman. Kami menyajikan berbagai menu pilihan mulai dari pisang lumpur, hot tahu balado, mie jebeew, tela-tela. Untuk melengkapi sajian, tersedia juga aneka minuman segar seperti jus alpukat, pop ice rasa mangga, rasa durian, rasa stroberi, rasa coklat, rasa taro, rasa vanilla blue, rasa beng-beng, dan es mojito.</t>
+  </si>
+  <si>
+    <t>Kapita Laut</t>
+  </si>
+  <si>
+    <t>Desain ini menghadirkan kisah heroik Kapita Laut Samandaré, pejuang dan penjaga laut Halmahera. Dengan ilustrasi bergaya epik, desain menonjolkan topeng tradisional, perahu layar, dan simbol kekuatan laut di bawah cahaya bulan. Warna netral dipadukan dengan detail garis etnik yang kuat, menegaskan karakter tangguh khas pelaut Maluku. Dicetak menggunakan teknik high-quality screen printing pada bahan cotton combed 30s, nyaman dan tahan lama.</t>
+  </si>
+  <si>
+    <t>Kaos ini menampilkan ikon kebudayaan Cogo IPA, representasi seni dan ritual dari warisan Fagogoru di Halmahera Tengah. Ilustrasi tiga figur bertopeng dengan warna merah dan emas menggambarkan semangat, keberanian, dan harmoni antara manusia dan leluhur. Desainnya penuh energi, seolah menyalakan kembali api budaya dalam bentuk visual kontemporer. Diproduksi dengan bahan cotton combed premium, cocok untuk dikenakan di acara budaya, festival, atau sebagai fashion statement khas daerah.</t>
+  </si>
+  <si>
+    <t>Kaos edisi penghormatan terhadap tokoh penting Halmahera Tengah, Hj. Salahuddin Bin Talabuddin, sosok panutan yang dikenal berwibawa dan berjasa bagi masyarakat. Desain menampilkan potret bergaya ilustrasi klasik dalam bingkai ornamental keemasan yang mencerminkan kehormatan dan keteladanan. Dicetak pada bahan katun premium dengan teknik screen printing halus berwarna monokrom elegan.</t>
+  </si>
+  <si>
+    <t>Desain ini menampilkan sosok Bidadari Halmahera — simbol keanggunan, kekuatan, dan keindahan perempuan Maluku Utara. Dengan warna emas dan hijau zamrud yang mencolok, ilustrasi ini menggambarkan perpaduan antara unsur alam dan spiritualitas lokal. Dicetak pada bahan katun premium dengan teknik high-resolution screen printing, kaos ini menghadirkan kesan elegan dan berkarakter.</t>
+  </si>
+  <si>
+    <t>Produk kreatif lokal seperti sablon, desain, merchandise, dan identitas visual khas Halmahera Tengah.</t>
+  </si>
+  <si>
+    <t>Ikan segar khas Weda hasil tangkapan nelayan lokal, dijual dalam kondisi segar siap olah.</t>
+  </si>
+  <si>
+    <t>Makanan Laut</t>
+  </si>
+  <si>
+    <t>Olahan ikan fufu asap khas Halmahera Tengah, siap saji dan tahan lama.</t>
+  </si>
+  <si>
+    <t>Kue sagu bakar tradisional khas Maluku Utara, gurih dan legit.</t>
+  </si>
+  <si>
+    <t>Fashion &amp; aksesoris lokal khas Halmahera Tengah.</t>
+  </si>
+  <si>
+    <t>Jasa sablon baju &amp; printing lokal berkualitas.</t>
+  </si>
+  <si>
+    <t>Jasa</t>
+  </si>
+  <si>
+    <t>Olahan sagu lokal khas Weda, tersedia dalam berbagai varian rasa.</t>
+  </si>
+  <si>
+    <t>Ikan Tore Woyo adalah ikan laut kecil yang diasap tradisional. Ikatan praktis (kla), gurih beraroma asap, cocok sebagai lauk atau oleh-oleh khas Weda.</t>
+  </si>
+  <si>
+    <t>Studio kreatif lokal yang mengangkat identitas budaya Fagogoru melalui desain, fesyen, dan produk kreatif. Tagline: “Lokal Itu Keren, Karya Itu Identitas.”</t>
   </si>
 </sst>
 </file>
@@ -1107,182 +1110,182 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="D2" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>132</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>137</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="F4" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B5" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>144</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="F6" s="6" t="s">
         <v>148</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="F7" s="6" t="s">
         <v>152</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="F8" s="6" t="s">
         <v>156</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="F9" s="6" t="s">
         <v>160</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>163</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1333,142 +1336,142 @@
     </row>
     <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D3" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>107</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>111</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>119</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>123</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>127</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1483,10 +1486,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="162" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="67" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1501,6 +1504,8 @@
     <col min="10" max="10" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.9296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.9296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.45">
@@ -1555,494 +1560,486 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>84</v>
       </c>
-      <c r="E2" t="s">
-        <v>85</v>
-      </c>
       <c r="F2" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L2" t="s">
-        <v>170</v>
-      </c>
-      <c r="M2" t="s">
-        <v>171</v>
-      </c>
-      <c r="P2">
+        <v>195</v>
+      </c>
+      <c r="O2">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="B3" t="s">
-        <v>87</v>
+        <v>196</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="H3" t="s">
         <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M3" t="s">
-        <v>171</v>
-      </c>
-      <c r="P3">
+        <v>195</v>
+      </c>
+      <c r="O3">
         <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B4" t="s">
-        <v>188</v>
+        <v>198</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F4" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="H4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
-      </c>
-      <c r="M4" t="s">
-        <v>171</v>
-      </c>
-      <c r="P4">
+        <v>93</v>
+      </c>
+      <c r="O4">
         <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>199</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="H5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M5" t="s">
-        <v>171</v>
-      </c>
-      <c r="P5">
+        <v>93</v>
+      </c>
+      <c r="O5">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s">
-        <v>196</v>
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="F6" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="H6" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="K6" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L6" t="s">
-        <v>170</v>
-      </c>
-      <c r="M6" t="s">
-        <v>171</v>
-      </c>
-      <c r="P6">
+        <v>93</v>
+      </c>
+      <c r="O6">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>201</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="F7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" t="s">
-        <v>171</v>
-      </c>
-      <c r="P7">
+        <v>93</v>
+      </c>
+      <c r="O7">
         <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>202</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>164</v>
+      </c>
+      <c r="K8" t="s">
         <v>167</v>
       </c>
-      <c r="F8" t="s">
-        <v>134</v>
-      </c>
-      <c r="H8" t="s">
+      <c r="L8" t="s">
         <v>166</v>
       </c>
-      <c r="J8" t="s">
-        <v>168</v>
-      </c>
-      <c r="K8" t="s">
-        <v>169</v>
-      </c>
-      <c r="L8" t="s">
-        <v>170</v>
-      </c>
-      <c r="M8" t="s">
-        <v>171</v>
-      </c>
-      <c r="P8">
+      <c r="O8">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>203</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="H9" t="s">
-        <v>183</v>
-      </c>
-      <c r="J9" t="s">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="K9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L9" t="s">
-        <v>170</v>
-      </c>
-      <c r="M9" t="s">
-        <v>171</v>
-      </c>
-      <c r="P9">
+        <v>204</v>
+      </c>
+      <c r="O9">
         <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>205</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="H10" t="s">
-        <v>140</v>
-      </c>
-      <c r="J10" t="s">
-        <v>175</v>
+        <v>138</v>
       </c>
       <c r="K10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L10" t="s">
-        <v>170</v>
-      </c>
-      <c r="M10" t="s">
-        <v>171</v>
-      </c>
-      <c r="P10">
+        <v>204</v>
+      </c>
+      <c r="O10">
         <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>144</v>
+        <v>206</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H11" t="s">
-        <v>89</v>
-      </c>
-      <c r="J11" t="s">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L11" t="s">
-        <v>170</v>
-      </c>
-      <c r="M11" t="s">
-        <v>171</v>
-      </c>
-      <c r="P11">
+        <v>195</v>
+      </c>
+      <c r="O11">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s">
-        <v>148</v>
+        <v>207</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="H12" t="s">
-        <v>147</v>
-      </c>
-      <c r="J12" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L12" t="s">
-        <v>170</v>
-      </c>
-      <c r="M12" t="s">
-        <v>171</v>
-      </c>
-      <c r="P12">
+        <v>93</v>
+      </c>
+      <c r="O12">
         <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>208</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
-        <v>151</v>
-      </c>
-      <c r="J13" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="K13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s">
-        <v>170</v>
-      </c>
-      <c r="M13" t="s">
-        <v>171</v>
-      </c>
-      <c r="P13">
+        <v>209</v>
+      </c>
+      <c r="O13">
         <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B14" t="s">
-        <v>156</v>
+        <v>210</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="H14" t="s">
-        <v>155</v>
-      </c>
-      <c r="J14" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
-      </c>
-      <c r="M14" t="s">
-        <v>171</v>
-      </c>
-      <c r="P14">
+        <v>195</v>
+      </c>
+      <c r="O14">
         <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="C15">
-        <v>200000</v>
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="F15" t="s">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="H15" t="s">
-        <v>199</v>
-      </c>
-      <c r="P15">
-        <v>85</v>
+        <v>190</v>
+      </c>
+      <c r="K15" t="s">
+        <v>167</v>
+      </c>
+      <c r="L15" t="s">
+        <v>204</v>
+      </c>
+      <c r="O15">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
       <c r="E16" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="F16" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="H16" t="s">
-        <v>206</v>
-      </c>
-      <c r="P16">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A17" t="s">
-        <v>209</v>
-      </c>
-      <c r="B17" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="E17" t="s">
-        <v>211</v>
-      </c>
-      <c r="F17" t="s">
-        <v>150</v>
-      </c>
-      <c r="H17" t="s">
-        <v>209</v>
-      </c>
-      <c r="P17">
+        <v>192</v>
+      </c>
+      <c r="K16" t="s">
+        <v>167</v>
+      </c>
+      <c r="L16" t="s">
+        <v>166</v>
+      </c>
+      <c r="O16">
         <v>83</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:P17" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
+  <autoFilter ref="A1:P1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>

--- a/excel/wedago_belanja_master_final.xlsx
+++ b/excel/wedago_belanja_master_final.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEDAGO\INPUTAN\HTML\INPUT BELANJA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50C98F86-2FD6-4A2B-9D23-CD889C116FEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25978E37-CD0C-46FC-87AF-6540F35C3B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -312,9 +312,6 @@
     <t>🛍️</t>
   </si>
   <si>
-    <t>action://p/68ca2366a13ed</t>
-  </si>
-  <si>
     <t>fashion</t>
   </si>
   <si>
@@ -324,9 +321,6 @@
     <t>👗</t>
   </si>
   <si>
-    <t>https://jgjk.mobi/p/68cbdd550db14</t>
-  </si>
-  <si>
     <t>sembako</t>
   </si>
   <si>
@@ -336,9 +330,6 @@
     <t>🥦</t>
   </si>
   <si>
-    <t>https://jgjk.mobi/p/68cbdfdbbe771</t>
-  </si>
-  <si>
     <t>kecantikan</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>💄</t>
   </si>
   <si>
-    <t>https://jgjk.mobi/p/68ca23f822b8b</t>
-  </si>
-  <si>
     <t>pertanian</t>
   </si>
   <si>
@@ -360,9 +348,6 @@
     <t>🌾</t>
   </si>
   <si>
-    <t>action://p/68ca251fe2535</t>
-  </si>
-  <si>
     <t>elektronik</t>
   </si>
   <si>
@@ -372,9 +357,6 @@
     <t>🔌</t>
   </si>
   <si>
-    <t>action://p/68ca25084d9fb</t>
-  </si>
-  <si>
     <t>gadget</t>
   </si>
   <si>
@@ -384,9 +366,6 @@
     <t>📱</t>
   </si>
   <si>
-    <t>action://p/68ca24f238608</t>
-  </si>
-  <si>
     <t>atk</t>
   </si>
   <si>
@@ -396,9 +375,6 @@
     <t>✏️</t>
   </si>
   <si>
-    <t>action://p/68ca24d07b0d3</t>
-  </si>
-  <si>
     <t>preloved</t>
   </si>
   <si>
@@ -408,9 +384,6 @@
     <t>♻️</t>
   </si>
   <si>
-    <t>action://p/68ca24a2219ce</t>
-  </si>
-  <si>
     <t>peralatan</t>
   </si>
   <si>
@@ -420,9 +393,6 @@
     <t>🛠️</t>
   </si>
   <si>
-    <t>action://p/68ca2534322d3</t>
-  </si>
-  <si>
     <t>BENGKEL KREATIF COGOIPA</t>
   </si>
   <si>
@@ -676,6 +646,36 @@
   </si>
   <si>
     <t>Studio kreatif lokal yang mengangkat identitas budaya Fagogoru melalui desain, fesyen, dan produk kreatif. Tagline: “Lokal Itu Keren, Karya Itu Identitas.”</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Produk UMKM</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Fashion</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Sembako</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Kecantikan</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Pertanian</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Elektronik</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Gadget</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Toko ATK</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Preloved</t>
+  </si>
+  <si>
+    <t>action://act/nearme/Peralatan</t>
   </si>
 </sst>
 </file>
@@ -748,19 +748,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -771,6 +762,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1089,203 +1081,203 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C4" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="7" t="s">
+      <c r="F4" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F2" s="6" t="s">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A3" s="6" t="s">
+      <c r="C5" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="F5" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="6" t="s">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="C6" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+      <c r="F6" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="B4" s="6" t="s">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="C7" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="F7" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="B8" s="3" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+      <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="7" t="s">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="B9" s="3" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A7" s="6" t="s">
+      <c r="C9" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="F9" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E7" s="7" t="s">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="B10" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A8" s="6" t="s">
+      <c r="F10" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1309,15 +1301,16 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.9296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.59765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.9296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.59765625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.46484375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.06640625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.45">
@@ -1334,7 +1327,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>88</v>
       </c>
@@ -1344,142 +1337,137 @@
       <c r="C2" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="5" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="D4" s="5" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>103</v>
+      <c r="D5" s="5" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>111</v>
+        <v>105</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D3" r:id="rId1" xr:uid="{97A508F6-83B5-4D8C-AF41-757D9EBEB297}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{8B9F78B5-DF90-47CA-A6CA-9641EE3EAB42}"/>
-    <hyperlink ref="D5" r:id="rId3" xr:uid="{DC9A8341-F86D-440B-85DF-AD984F6C5EC1}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -1488,8 +1476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="67" zoomScaleNormal="105" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="67" zoomScaleNormal="105" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1560,10 +1548,10 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -1575,16 +1563,16 @@
         <v>84</v>
       </c>
       <c r="F2" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K2" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O2">
         <v>96</v>
@@ -1592,10 +1580,10 @@
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -1607,16 +1595,16 @@
         <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="H3" t="s">
         <v>83</v>
       </c>
       <c r="K3" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L3" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O3">
         <v>94</v>
@@ -1624,10 +1612,10 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1636,19 +1624,19 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="F4" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="H4" t="s">
         <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O4">
         <v>91</v>
@@ -1656,10 +1644,10 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1668,19 +1656,19 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="F5" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="H5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="K5" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O5">
         <v>95</v>
@@ -1688,10 +1676,10 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1700,19 +1688,19 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="H6" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="K6" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O6">
         <v>88</v>
@@ -1720,10 +1708,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -1732,19 +1720,19 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F7" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="H7" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="K7" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O7">
         <v>87</v>
@@ -1752,10 +1740,10 @@
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1764,19 +1752,19 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="K8" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L8" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O8">
         <v>96</v>
@@ -1784,10 +1772,10 @@
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1796,19 +1784,19 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H9" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L9" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O9">
         <v>94</v>
@@ -1816,10 +1804,10 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1828,19 +1816,19 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="F10" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="H10" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K10" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L10" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O10">
         <v>91</v>
@@ -1851,7 +1839,7 @@
         <v>87</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1860,19 +1848,19 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="F11" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H11" t="s">
         <v>87</v>
       </c>
       <c r="K11" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L11" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O11">
         <v>95</v>
@@ -1880,10 +1868,10 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1892,19 +1880,19 @@
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="F12" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H12" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="K12" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="O12">
         <v>88</v>
@@ -1912,10 +1900,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1924,19 +1912,19 @@
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="F13" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="H13" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="K13" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L13" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="O13">
         <v>87</v>
@@ -1944,10 +1932,10 @@
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1956,19 +1944,19 @@
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="F14" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="K14" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L14" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="O14">
         <v>86</v>
@@ -1976,10 +1964,10 @@
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B15" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1988,19 +1976,19 @@
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="H15" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="K15" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="O15">
         <v>84</v>
@@ -2008,10 +1996,10 @@
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -2020,19 +2008,19 @@
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="F16" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="H16" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="K16" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="O16">
         <v>83</v>
